--- a/conf/ReportLocalization.xlsx
+++ b/conf/ReportLocalization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>LanguageKey</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>$verifyValue</t>
+  </si>
+  <si>
+    <t>$excuteCustomMethod</t>
+  </si>
+  <si>
+    <t>Execute Custom Method</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,6 +648,14 @@
         <v>39</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/conf/ReportLocalization.xlsx
+++ b/conf/ReportLocalization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>LanguageKey</t>
   </si>
@@ -148,6 +148,24 @@
   </si>
   <si>
     <t>Execute Custom Method</t>
+  </si>
+  <si>
+    <t>$selectValueInMobileSelect</t>
+  </si>
+  <si>
+    <t>Select value in Mobile Select DropDown</t>
+  </si>
+  <si>
+    <t>$selectMobileRadioButton</t>
+  </si>
+  <si>
+    <t>Select mobile radio Button</t>
+  </si>
+  <si>
+    <t>$setDateInMobile</t>
+  </si>
+  <si>
+    <t>Set date in Mobile</t>
   </si>
 </sst>
 </file>
@@ -474,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,6 +674,30 @@
         <v>42</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
